--- a/01__carregamento_de_banco/dados_brutos/Investimentos - Base de Dados.xlsx
+++ b/01__carregamento_de_banco/dados_brutos/Investimentos - Base de Dados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/517707fd376d83dc/Documentos/Financeiro/Investimentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/517707fd376d83dc/Documentos/Financeiro/Investimentos/portfolio-project/01__carregamento_de_banco/dados_brutos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="164" documentId="13_ncr:1_{A23D3960-20AE-45F5-804A-AD83DCEC97C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74E7E471-DCA7-40CC-B00C-EBA7E1A289EA}"/>
+  <xr:revisionPtr revIDLastSave="279" documentId="13_ncr:1_{A23D3960-20AE-45F5-804A-AD83DCEC97C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43C9F251-5EED-472E-8395-D4543036FA9A}"/>
   <bookViews>
-    <workbookView xWindow="7220" yWindow="1420" windowWidth="28800" windowHeight="15910" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Criptomoedas" sheetId="4" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="41">
   <si>
     <t>Bitcoin</t>
   </si>
@@ -116,9 +116,6 @@
     <t>MSFT34</t>
   </si>
   <si>
-    <t>NUBR33</t>
-  </si>
-  <si>
     <t>NVDC34</t>
   </si>
   <si>
@@ -156,6 +153,18 @@
   </si>
   <si>
     <t>Caixinha</t>
+  </si>
+  <si>
+    <t>ROXO34</t>
+  </si>
+  <si>
+    <t>Rendimentos</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>True</t>
   </si>
 </sst>
 </file>
@@ -235,7 +244,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -283,6 +292,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -299,10 +309,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -570,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{487E985E-12AB-4BF0-A8F5-04CC23AEB7CE}">
   <dimension ref="A1:AB42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1466,7 +1472,27 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="2"/>
+      <c r="A34" s="2">
+        <v>45170</v>
+      </c>
+      <c r="B34" s="4">
+        <v>1749.99</v>
+      </c>
+      <c r="C34" s="4">
+        <v>698.83</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0.26029999999999998</v>
+      </c>
+      <c r="E34" s="4">
+        <v>237.46</v>
+      </c>
+      <c r="F34" s="4">
+        <v>262.95</v>
+      </c>
+      <c r="G34" s="4">
+        <v>219.74</v>
+      </c>
     </row>
     <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.5">
       <c r="A35" s="2"/>
@@ -1492,7 +1518,7 @@
   <dimension ref="A1:AF34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R34" sqref="R34"/>
+      <selection activeCell="R35" sqref="R35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1500,10 +1526,11 @@
     <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="11" width="10.08984375" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.08984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="14" max="17" width="10.08984375" style="4" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="32" width="8.7265625" style="4"/>
+    <col min="19" max="19" width="8.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="32" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.35">
@@ -1550,18 +1577,17 @@
         <v>25</v>
       </c>
       <c r="O1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="S1" s="12"/>
       <c r="T1" s="12"/>
       <c r="U1" s="12"/>
       <c r="V1" s="12"/>
@@ -2118,10 +2144,10 @@
         <v>0</v>
       </c>
       <c r="M11" s="4">
-        <v>0</v>
+        <v>70.62</v>
       </c>
       <c r="N11" s="4">
-        <v>70.62</v>
+        <v>0</v>
       </c>
       <c r="O11" s="4">
         <v>0</v>
@@ -2174,10 +2200,10 @@
         <v>78.88</v>
       </c>
       <c r="M12" s="4">
-        <v>0</v>
+        <v>103.86</v>
       </c>
       <c r="N12" s="4">
-        <v>103.86</v>
+        <v>0</v>
       </c>
       <c r="O12" s="4">
         <v>0</v>
@@ -2230,13 +2256,13 @@
         <v>77.959999999999994</v>
       </c>
       <c r="M13" s="4">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="N13" s="4">
-        <v>114</v>
+        <v>85.08</v>
       </c>
       <c r="O13" s="4">
-        <v>85.08</v>
+        <v>0</v>
       </c>
       <c r="P13" s="4">
         <v>0</v>
@@ -2286,13 +2312,13 @@
         <v>78.34</v>
       </c>
       <c r="M14" s="4">
-        <v>0</v>
+        <v>104.16</v>
       </c>
       <c r="N14" s="4">
-        <v>104.16</v>
+        <v>87.6</v>
       </c>
       <c r="O14" s="4">
-        <v>87.6</v>
+        <v>0</v>
       </c>
       <c r="P14" s="4">
         <v>0</v>
@@ -2342,13 +2368,13 @@
         <v>67.27</v>
       </c>
       <c r="M15" s="4">
-        <v>0</v>
+        <v>81.06</v>
       </c>
       <c r="N15" s="4">
-        <v>81.06</v>
+        <v>97.89</v>
       </c>
       <c r="O15" s="4">
-        <v>97.89</v>
+        <v>0</v>
       </c>
       <c r="P15" s="4">
         <v>0</v>
@@ -2398,13 +2424,13 @@
         <v>61.36</v>
       </c>
       <c r="M16" s="4">
-        <v>0</v>
+        <v>73.680000000000007</v>
       </c>
       <c r="N16" s="4">
-        <v>73.680000000000007</v>
+        <v>102.45</v>
       </c>
       <c r="O16" s="4">
-        <v>102.45</v>
+        <v>0</v>
       </c>
       <c r="P16" s="4">
         <v>133.94</v>
@@ -2454,13 +2480,13 @@
         <v>60.46</v>
       </c>
       <c r="M17" s="4">
-        <v>0</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="N17" s="4">
-        <v>78.599999999999994</v>
+        <v>98.16</v>
       </c>
       <c r="O17" s="4">
-        <v>98.16</v>
+        <v>0</v>
       </c>
       <c r="P17" s="4">
         <v>164.55</v>
@@ -2510,13 +2536,13 @@
         <v>54.72</v>
       </c>
       <c r="M18" s="4">
-        <v>0</v>
+        <v>54.96</v>
       </c>
       <c r="N18" s="4">
-        <v>54.96</v>
+        <v>90.09</v>
       </c>
       <c r="O18" s="4">
-        <v>90.09</v>
+        <v>0</v>
       </c>
       <c r="P18" s="4">
         <v>110.9</v>
@@ -2566,13 +2592,13 @@
         <v>68</v>
       </c>
       <c r="M19" s="4">
-        <v>0</v>
+        <v>55.41</v>
       </c>
       <c r="N19" s="4">
-        <v>55.41</v>
+        <v>84.36</v>
       </c>
       <c r="O19" s="4">
-        <v>84.36</v>
+        <v>0</v>
       </c>
       <c r="P19" s="4">
         <v>120.24</v>
@@ -2622,13 +2648,13 @@
         <v>60.17</v>
       </c>
       <c r="M20" s="4">
-        <v>0</v>
+        <v>51.3</v>
       </c>
       <c r="N20" s="4">
-        <v>51.3</v>
+        <v>83.28</v>
       </c>
       <c r="O20" s="4">
-        <v>83.28</v>
+        <v>0</v>
       </c>
       <c r="P20" s="4">
         <v>117.67</v>
@@ -2678,13 +2704,13 @@
         <v>60.64</v>
       </c>
       <c r="M21" s="4">
-        <v>0</v>
+        <v>56.88</v>
       </c>
       <c r="N21" s="4">
-        <v>56.88</v>
+        <v>108.18</v>
       </c>
       <c r="O21" s="4">
-        <v>108.18</v>
+        <v>0</v>
       </c>
       <c r="P21" s="4">
         <v>143.71</v>
@@ -2734,13 +2760,13 @@
         <v>56.9</v>
       </c>
       <c r="M22" s="4">
-        <v>0</v>
+        <v>45.12</v>
       </c>
       <c r="N22" s="4">
-        <v>45.12</v>
+        <v>102.39</v>
       </c>
       <c r="O22" s="4">
-        <v>102.39</v>
+        <v>0</v>
       </c>
       <c r="P22" s="4">
         <v>134.01</v>
@@ -2790,13 +2816,13 @@
         <v>53.34</v>
       </c>
       <c r="M23" s="4">
-        <v>0</v>
+        <v>41.4</v>
       </c>
       <c r="N23" s="4">
-        <v>41.4</v>
+        <v>96.51</v>
       </c>
       <c r="O23" s="4">
-        <v>96.51</v>
+        <v>0</v>
       </c>
       <c r="P23" s="4">
         <v>115.02</v>
@@ -2846,13 +2872,13 @@
         <v>45.75</v>
       </c>
       <c r="M24" s="4">
-        <v>0</v>
+        <v>43.62</v>
       </c>
       <c r="N24" s="4">
-        <v>43.62</v>
+        <v>86.88</v>
       </c>
       <c r="O24" s="4">
-        <v>86.88</v>
+        <v>0</v>
       </c>
       <c r="P24" s="4">
         <v>96.75</v>
@@ -2902,13 +2928,13 @@
         <v>55.16</v>
       </c>
       <c r="M25" s="4">
-        <v>0</v>
+        <v>54.66</v>
       </c>
       <c r="N25" s="4">
-        <v>54.66</v>
+        <v>77.73</v>
       </c>
       <c r="O25" s="4">
-        <v>77.73</v>
+        <v>0</v>
       </c>
       <c r="P25" s="4">
         <v>94.77</v>
@@ -2958,13 +2984,13 @@
         <v>51.31</v>
       </c>
       <c r="M26" s="4">
+        <v>56.43</v>
+      </c>
+      <c r="N26" s="4">
+        <v>78</v>
+      </c>
+      <c r="O26" s="4">
         <v>3.1</v>
-      </c>
-      <c r="N26" s="4">
-        <v>56.43</v>
-      </c>
-      <c r="O26" s="4">
-        <v>78</v>
       </c>
       <c r="P26" s="4">
         <v>65.61</v>
@@ -3014,13 +3040,13 @@
         <v>52.9</v>
       </c>
       <c r="M27" s="4">
+        <v>65.94</v>
+      </c>
+      <c r="N27" s="4">
+        <v>77.31</v>
+      </c>
+      <c r="O27" s="4">
         <v>3.97</v>
-      </c>
-      <c r="N27" s="4">
-        <v>65.94</v>
-      </c>
-      <c r="O27" s="4">
-        <v>77.31</v>
       </c>
       <c r="P27" s="4">
         <v>85.77</v>
@@ -3070,13 +3096,13 @@
         <v>54.25</v>
       </c>
       <c r="M28" s="4">
+        <v>75.3</v>
+      </c>
+      <c r="N28" s="4">
+        <v>73.92</v>
+      </c>
+      <c r="O28" s="4">
         <v>4.0199999999999996</v>
-      </c>
-      <c r="N28" s="4">
-        <v>75.3</v>
-      </c>
-      <c r="O28" s="4">
-        <v>73.92</v>
       </c>
       <c r="P28" s="4">
         <v>95.54</v>
@@ -3126,13 +3152,13 @@
         <v>60.74</v>
       </c>
       <c r="M29" s="4">
+        <v>88.38</v>
+      </c>
+      <c r="N29" s="4">
+        <v>73.38</v>
+      </c>
+      <c r="O29" s="4">
         <v>3.78</v>
-      </c>
-      <c r="N29" s="4">
-        <v>88.38</v>
-      </c>
-      <c r="O29" s="4">
-        <v>73.38</v>
       </c>
       <c r="P29" s="4">
         <v>92.46</v>
@@ -3182,13 +3208,13 @@
         <v>64.150000000000006</v>
       </c>
       <c r="M30" s="4">
+        <v>89.52</v>
+      </c>
+      <c r="N30" s="4">
+        <v>68.64</v>
+      </c>
+      <c r="O30" s="4">
         <v>4.33</v>
-      </c>
-      <c r="N30" s="4">
-        <v>89.52</v>
-      </c>
-      <c r="O30" s="4">
-        <v>68.64</v>
       </c>
       <c r="P30" s="4">
         <v>76.709999999999994</v>
@@ -3238,13 +3264,13 @@
         <v>69.17</v>
       </c>
       <c r="M31" s="4">
+        <v>120.09</v>
+      </c>
+      <c r="N31" s="4">
+        <v>82.2</v>
+      </c>
+      <c r="O31" s="4">
         <v>5.58</v>
-      </c>
-      <c r="N31" s="4">
-        <v>120.09</v>
-      </c>
-      <c r="O31" s="4">
-        <v>82.2</v>
       </c>
       <c r="P31" s="4">
         <v>99.81</v>
@@ -3294,13 +3320,13 @@
         <v>67.25</v>
       </c>
       <c r="M32" s="4">
+        <v>126.27</v>
+      </c>
+      <c r="N32" s="4">
+        <v>90.06</v>
+      </c>
+      <c r="O32" s="4">
         <v>6.35</v>
-      </c>
-      <c r="N32" s="4">
-        <v>126.27</v>
-      </c>
-      <c r="O32" s="4">
-        <v>90.06</v>
       </c>
       <c r="P32" s="4">
         <v>123.87</v>
@@ -3350,13 +3376,13 @@
         <v>67.05</v>
       </c>
       <c r="M33" s="4">
+        <v>139.71</v>
+      </c>
+      <c r="N33" s="4">
+        <v>91.65</v>
+      </c>
+      <c r="O33" s="4">
         <v>6.31</v>
-      </c>
-      <c r="N33" s="4">
-        <v>139.71</v>
-      </c>
-      <c r="O33" s="4">
-        <v>91.65</v>
       </c>
       <c r="P33" s="4">
         <v>117.36</v>
@@ -3369,7 +3395,60 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="16" x14ac:dyDescent="0.5">
-      <c r="J34" s="18"/>
+      <c r="A34" s="2">
+        <v>45170</v>
+      </c>
+      <c r="B34" s="4">
+        <v>131.22</v>
+      </c>
+      <c r="C34" s="4">
+        <v>150.59</v>
+      </c>
+      <c r="D34" s="4">
+        <v>139.68</v>
+      </c>
+      <c r="E34" s="4">
+        <v>378.56</v>
+      </c>
+      <c r="F34" s="4">
+        <v>94.48</v>
+      </c>
+      <c r="G34" s="4">
+        <v>192.4</v>
+      </c>
+      <c r="H34" s="4">
+        <v>160.30000000000001</v>
+      </c>
+      <c r="I34" s="4">
+        <v>159.29</v>
+      </c>
+      <c r="J34" s="18">
+        <v>160.35</v>
+      </c>
+      <c r="K34" s="4">
+        <v>36.68</v>
+      </c>
+      <c r="L34" s="4">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="M34" s="4">
+        <v>138.6</v>
+      </c>
+      <c r="N34" s="4">
+        <v>100.65</v>
+      </c>
+      <c r="O34" s="4">
+        <v>6.23</v>
+      </c>
+      <c r="P34" s="4">
+        <v>124.2</v>
+      </c>
+      <c r="Q34" s="4">
+        <v>134.91999999999999</v>
+      </c>
+      <c r="R34" s="4">
+        <v>249.48</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3379,10 +3458,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B29B67B7-2144-4303-8CD3-9BF1AECA5FF8}">
-  <dimension ref="A1:AF32"/>
+  <dimension ref="A1:AF35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S32" sqref="S32"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3398,13 +3477,13 @@
     <col min="10" max="10" width="9" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.1796875" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.08984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.81640625" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.08984375" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.08984375" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8" style="4" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8.08984375" style="4" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="32" width="8.7265625" style="4"/>
+    <col min="19" max="19" width="8.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="32" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.35">
@@ -3451,18 +3530,17 @@
         <v>25</v>
       </c>
       <c r="O1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="S1" s="12"/>
       <c r="T1" s="12"/>
       <c r="U1" s="12"/>
       <c r="V1" s="12"/>
@@ -4414,10 +4492,10 @@
         <v>0</v>
       </c>
       <c r="N18" s="4">
-        <v>0</v>
+        <v>8.83</v>
       </c>
       <c r="O18" s="4">
-        <v>8.83</v>
+        <v>0</v>
       </c>
       <c r="P18" s="4">
         <v>0</v>
@@ -4470,10 +4548,10 @@
         <v>0</v>
       </c>
       <c r="N19" s="4">
-        <v>0</v>
+        <v>5.38</v>
       </c>
       <c r="O19" s="4">
-        <v>5.38</v>
+        <v>0</v>
       </c>
       <c r="P19" s="4">
         <v>0</v>
@@ -4526,10 +4604,10 @@
         <v>0</v>
       </c>
       <c r="N20" s="4">
-        <v>0</v>
+        <v>5.57</v>
       </c>
       <c r="O20" s="4">
-        <v>5.57</v>
+        <v>0</v>
       </c>
       <c r="P20" s="4">
         <v>0</v>
@@ -4582,10 +4660,10 @@
         <v>0</v>
       </c>
       <c r="N21" s="4">
-        <v>0</v>
+        <v>9.9</v>
       </c>
       <c r="O21" s="4">
-        <v>9.9</v>
+        <v>0</v>
       </c>
       <c r="P21" s="4">
         <v>0</v>
@@ -4638,10 +4716,10 @@
         <v>0</v>
       </c>
       <c r="N22" s="4">
-        <v>0</v>
+        <v>10.09</v>
       </c>
       <c r="O22" s="4">
-        <v>10.09</v>
+        <v>0</v>
       </c>
       <c r="P22" s="4">
         <v>0</v>
@@ -4806,10 +4884,10 @@
         <v>0</v>
       </c>
       <c r="N25" s="4">
-        <v>0</v>
+        <v>4.78</v>
       </c>
       <c r="O25" s="4">
-        <v>4.78</v>
+        <v>0</v>
       </c>
       <c r="P25" s="4">
         <v>0</v>
@@ -4862,10 +4940,10 @@
         <v>0</v>
       </c>
       <c r="N26" s="4">
-        <v>0</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="O26" s="4">
-        <v>5.0199999999999996</v>
+        <v>0</v>
       </c>
       <c r="P26" s="13">
         <v>0</v>
@@ -5086,10 +5164,10 @@
         <v>0</v>
       </c>
       <c r="N30" s="4">
-        <v>0</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="O30" s="4">
-        <v>4.2699999999999996</v>
+        <v>0</v>
       </c>
       <c r="P30" s="4">
         <v>0</v>
@@ -5142,10 +5220,10 @@
         <v>0</v>
       </c>
       <c r="N31" s="4">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="O31" s="4">
-        <v>2.74</v>
+        <v>0</v>
       </c>
       <c r="P31" s="4">
         <v>0</v>
@@ -5212,6 +5290,65 @@
       <c r="R32" s="4">
         <v>0</v>
       </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A33" s="2">
+        <v>45139</v>
+      </c>
+      <c r="B33" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0</v>
+      </c>
+      <c r="E33" s="4">
+        <v>2.14</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0</v>
+      </c>
+      <c r="H33" s="4">
+        <v>0</v>
+      </c>
+      <c r="I33" s="4">
+        <v>2.48</v>
+      </c>
+      <c r="J33" s="4">
+        <v>0</v>
+      </c>
+      <c r="K33" s="4">
+        <v>0</v>
+      </c>
+      <c r="L33" s="4">
+        <v>0</v>
+      </c>
+      <c r="M33" s="4">
+        <v>0</v>
+      </c>
+      <c r="N33" s="4">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="O33" s="4">
+        <v>0</v>
+      </c>
+      <c r="P33" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>0</v>
+      </c>
+      <c r="R33" s="4">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="16" x14ac:dyDescent="0.5">
+      <c r="Q35" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5224,7 +5361,7 @@
   <dimension ref="A1:AF34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5761,8 +5898,19 @@
         <v>712.24</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="16" x14ac:dyDescent="0.5">
-      <c r="D34" s="18"/>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="2">
+        <v>45170</v>
+      </c>
+      <c r="B34" s="4">
+        <v>900</v>
+      </c>
+      <c r="C34" s="4">
+        <v>726.16</v>
+      </c>
+      <c r="D34" s="13">
+        <v>720</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5775,7 +5923,7 @@
   <dimension ref="A1:AF38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6300,7 +6448,21 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="38" spans="4:4" ht="16" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="2">
+        <v>45139</v>
+      </c>
+      <c r="B33" s="4">
+        <v>7.12</v>
+      </c>
+      <c r="C33" s="4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D33" s="4">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="16" x14ac:dyDescent="0.5">
       <c r="D38" s="18"/>
     </row>
   </sheetData>
@@ -6313,8 +6475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2907CC3-5B3A-43EB-97DD-311F24B3548D}">
   <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58:G74"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6331,7 +6493,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>8</v>
@@ -7005,7 +7167,21 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="2"/>
+      <c r="A34" s="2">
+        <v>45170</v>
+      </c>
+      <c r="B34" s="4">
+        <v>28047.23</v>
+      </c>
+      <c r="C34" s="4">
+        <v>16559.87</v>
+      </c>
+      <c r="D34" s="4">
+        <v>8759.7999999999993</v>
+      </c>
+      <c r="E34" s="4">
+        <v>5.35</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
@@ -7027,14 +7203,14 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.90625" style="14"/>
-    <col min="2" max="2" width="14.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.36328125" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" style="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.36328125" style="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.6328125" style="14" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="30.90625" style="14"/>
@@ -7042,18 +7218,24 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>33</v>
+      <c r="C1" s="19" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>34</v>
+      <c r="B2" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="D2" s="9"/>
     </row>
@@ -7061,8 +7243,11 @@
       <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>34</v>
+      <c r="B3" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="D3" s="9"/>
     </row>
@@ -7070,8 +7255,11 @@
       <c r="A4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>34</v>
+      <c r="B4" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="D4" s="16"/>
     </row>
@@ -7079,24 +7267,33 @@
       <c r="A5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>34</v>
+      <c r="B5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>34</v>
+      <c r="B6" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>34</v>
+      <c r="B7" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="F7" s="17"/>
     </row>
@@ -7104,193 +7301,265 @@
       <c r="A8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>36</v>
+      <c r="B8" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>35</v>
+      <c r="B9" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>36</v>
+      <c r="B10" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>35</v>
+      <c r="B11" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>35</v>
+      <c r="B12" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>36</v>
+      <c r="B13" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>36</v>
+      <c r="B14" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>35</v>
+      <c r="B15" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>36</v>
+      <c r="B16" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>35</v>
+      <c r="B17" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>36</v>
+      <c r="B18" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="D19" s="17"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>36</v>
+        <v>24</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>35</v>
+        <v>25</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>36</v>
+        <v>26</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>35</v>
+        <v>27</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B25" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B26" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="14" t="s">
-        <v>31</v>
+      <c r="B27" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>37</v>
+        <v>29</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="14" t="s">
-        <v>37</v>
+      <c r="B29" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="14" t="s">
-        <v>37</v>
+      <c r="B30" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="14" t="s">
-        <v>37</v>
+      <c r="B31" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
